--- a/Sample/excel/Sample1.xlsx
+++ b/Sample/excel/Sample1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Json1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>*key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,6 +371,10 @@
   </si>
   <si>
     <t>字典测试，以字典的形式输出到json1的dic项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,19 +704,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -723,7 +728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -736,8 +741,11 @@
       <c r="D2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -750,8 +758,11 @@
       <c r="D3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -764,8 +775,11 @@
       <c r="D4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -778,13 +792,19 @@
       <c r="D5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +819,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1271,7 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Sample/excel/Sample1.xlsx
+++ b/Sample/excel/Sample1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="2616" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Json1" sheetId="1" r:id="rId1"/>
@@ -158,62 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御:5 格挡:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击:10 防御5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击:5 攻速:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff5 buff6 buff7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff4 buff2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命:100 防御:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命:100 防御:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命:100 防御:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff1 buff2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击:10 防御:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击:15 攻速:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a:1 b:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 2 3 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好 我很好|你呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value3#float#2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,22 +190,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击:100 防御:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击:100 防御:100 闪避:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称:字典</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击:100 防御:100 闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,6 +307,74 @@
   </si>
   <si>
     <t>value4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:1|b:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好|我很好|你呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击:100|防御:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击:100|防御:100|闪避:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击:100|防御:100|闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff1|buff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff5|buff6|buff7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff4|buff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击:10|防御:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击:15|攻速:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击:5|攻速:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御:5|格挡:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击:10|防御5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命:100|防御:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命:100|防御:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命:100|防御:12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +707,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,13 +750,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>-2</v>
@@ -770,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -784,13 +784,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -833,16 +833,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -859,16 +859,16 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>43359</v>
@@ -902,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1">
         <v>43360</v>
@@ -931,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <v>43361</v>
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>43362</v>
@@ -989,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>43363</v>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>43364</v>
@@ -1047,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1">
         <v>43365</v>
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1">
         <v>43366</v>
@@ -1105,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1">
         <v>43367</v>
@@ -1147,7 +1147,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1155,10 +1155,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,10 +1166,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,10 +1177,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1199,10 +1199,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,10 +1210,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,10 +1221,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,10 +1232,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,10 +1243,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1338,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1363,10 +1363,10 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,10 +1427,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,7 +1441,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1466,10 +1466,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
